--- a/ReportTemplate/Payroll.xlsx
+++ b/ReportTemplate/Payroll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\Project\PayrollReport\PayrollReport\MainUI\bin\Debug\ReportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\Project\PayrollReport\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">源数据!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511" fullPrecision="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -50,9 +49,6 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>社保编号</t>
-  </si>
-  <si>
     <t>系数</t>
   </si>
   <si>
@@ -307,6 +303,10 @@
   </si>
   <si>
     <t>扣款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号码</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -851,7 +851,7 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -891,7 +891,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -942,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>0</v>
@@ -951,70 +951,70 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="U2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>3</v>
@@ -1023,144 +1023,144 @@
         <v>4</v>
       </c>
       <c r="AE2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:38" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AF3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AG3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AH3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AI3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AK3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AL3" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/ReportTemplate/Payroll.xlsx
+++ b/ReportTemplate/Payroll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\Project\PayrollReport\ReportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\Project\PayrollReport\PayrollReport\MainUI\bin\Debug\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -314,9 +314,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -421,7 +423,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -449,8 +451,14 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -851,7 +859,7 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K3" sqref="K3:AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -862,74 +870,56 @@
     <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="3" customWidth="1"/>
-    <col min="14" max="14" width="5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
-    <col min="17" max="18" width="4.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="6.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="5.25" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="5.125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="7.375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="4.875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="5" style="2" customWidth="1"/>
-    <col min="26" max="29" width="4.375" style="2" customWidth="1"/>
-    <col min="30" max="30" width="4.875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="6.875" style="2" customWidth="1"/>
-    <col min="32" max="33" width="4.75" style="2" customWidth="1"/>
-    <col min="34" max="34" width="6" style="2" customWidth="1"/>
-    <col min="35" max="35" width="4.5" style="2" customWidth="1"/>
-    <col min="36" max="36" width="6.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="3" customWidth="1"/>
+    <col min="14" max="36" width="8.625" style="2" customWidth="1"/>
     <col min="37" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:38" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1066,7 +1056,7 @@
       <c r="F3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -1078,88 +1068,88 @@
       <c r="J3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AC3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AD3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AG3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AH3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AI3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AK3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AL3" s="11" t="s">
         <v>67</v>
       </c>
     </row>
